--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N2">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O2">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P2">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q2">
-        <v>1291.366004358059</v>
+        <v>1877.877539538502</v>
       </c>
       <c r="R2">
-        <v>11622.29403922253</v>
+        <v>16900.89785584652</v>
       </c>
       <c r="S2">
-        <v>0.03916405681753533</v>
+        <v>0.04288406734930842</v>
       </c>
       <c r="T2">
-        <v>0.03916405681753532</v>
+        <v>0.04288406734930843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>213.094025</v>
       </c>
       <c r="O3">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P3">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q3">
-        <v>10657.21793778948</v>
+        <v>12069.33708688314</v>
       </c>
       <c r="R3">
-        <v>95914.96144010528</v>
+        <v>108624.0337819483</v>
       </c>
       <c r="S3">
-        <v>0.323208050563422</v>
+        <v>0.2756208824046115</v>
       </c>
       <c r="T3">
-        <v>0.3232080505634219</v>
+        <v>0.2756208824046115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N4">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O4">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P4">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q4">
-        <v>1743.579944076254</v>
+        <v>5500.570874679072</v>
       </c>
       <c r="R4">
-        <v>15692.21949668628</v>
+        <v>49505.13787211166</v>
       </c>
       <c r="S4">
-        <v>0.05287862911465014</v>
+        <v>0.125613543419531</v>
       </c>
       <c r="T4">
-        <v>0.05287862911465013</v>
+        <v>0.125613543419531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N5">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O5">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P5">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q5">
-        <v>588.571002992901</v>
+        <v>755.7483548026651</v>
       </c>
       <c r="R5">
-        <v>5297.139026936108</v>
+        <v>6801.735193223984</v>
       </c>
       <c r="S5">
-        <v>0.0178499574284723</v>
+        <v>0.01725861386810737</v>
       </c>
       <c r="T5">
-        <v>0.0178499574284723</v>
+        <v>0.01725861386810737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>213.094025</v>
       </c>
       <c r="O6">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P6">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q6">
         <v>4857.282466466025</v>
@@ -821,10 +821,10 @@
         <v>43715.54219819422</v>
       </c>
       <c r="S6">
-        <v>0.1473098144550102</v>
+        <v>0.1109231161461864</v>
       </c>
       <c r="T6">
-        <v>0.1473098144550102</v>
+        <v>0.1109231161461864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N7">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O7">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P7">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q7">
-        <v>794.678342948484</v>
+        <v>2213.694610797561</v>
       </c>
       <c r="R7">
-        <v>7152.105086536355</v>
+        <v>19923.25149717805</v>
       </c>
       <c r="S7">
-        <v>0.02410070241114213</v>
+        <v>0.05055293903966378</v>
       </c>
       <c r="T7">
-        <v>0.02410070241114213</v>
+        <v>0.05055293903966378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H8">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I8">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J8">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N8">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O8">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P8">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q8">
-        <v>328.4282005482467</v>
+        <v>588.7817543249366</v>
       </c>
       <c r="R8">
-        <v>2955.85380493422</v>
+        <v>5299.035788924429</v>
       </c>
       <c r="S8">
-        <v>0.00996044549983832</v>
+        <v>0.01344568848335004</v>
       </c>
       <c r="T8">
-        <v>0.009960445499838318</v>
+        <v>0.01344568848335004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H9">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I9">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J9">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>213.094025</v>
       </c>
       <c r="O9">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P9">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q9">
-        <v>2710.409673436167</v>
+        <v>3784.168729820616</v>
       </c>
       <c r="R9">
-        <v>24393.6870609255</v>
+        <v>34057.51856838555</v>
       </c>
       <c r="S9">
-        <v>0.08220027326955935</v>
+        <v>0.08641700177672686</v>
       </c>
       <c r="T9">
-        <v>0.08220027326955932</v>
+        <v>0.08641700177672687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N10">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O10">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P10">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q10">
-        <v>443.4380505700533</v>
+        <v>1724.625648474451</v>
       </c>
       <c r="R10">
-        <v>3990.94245513048</v>
+        <v>15521.63083627006</v>
       </c>
       <c r="S10">
-        <v>0.01344842047024133</v>
+        <v>0.03938433731930084</v>
       </c>
       <c r="T10">
-        <v>0.01344842047024133</v>
+        <v>0.03938433731930085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H11">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I11">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J11">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N11">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O11">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P11">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q11">
-        <v>901.4811833587152</v>
+        <v>1005.917828438258</v>
       </c>
       <c r="R11">
-        <v>8113.330650228435</v>
+        <v>9053.260455944319</v>
       </c>
       <c r="S11">
-        <v>0.02733977831679891</v>
+        <v>0.02297159798461494</v>
       </c>
       <c r="T11">
-        <v>0.0273397783167989</v>
+        <v>0.02297159798461495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H12">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I12">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J12">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>213.094025</v>
       </c>
       <c r="O12">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P12">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q12">
-        <v>7439.627034820376</v>
+        <v>6465.150734009244</v>
       </c>
       <c r="R12">
-        <v>66956.64331338338</v>
+        <v>58186.35660608319</v>
       </c>
       <c r="S12">
-        <v>0.2256261779462096</v>
+        <v>0.1476411287015123</v>
       </c>
       <c r="T12">
-        <v>0.2256261779462095</v>
+        <v>0.1476411287015123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H13">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I13">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J13">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N13">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O13">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P13">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q13">
-        <v>1217.16423226406</v>
+        <v>2946.476643406521</v>
       </c>
       <c r="R13">
-        <v>10954.47809037654</v>
+        <v>26518.28979065869</v>
       </c>
       <c r="S13">
-        <v>0.03691369370712049</v>
+        <v>0.06728708350708658</v>
       </c>
       <c r="T13">
-        <v>0.03691369370712048</v>
+        <v>0.06728708350708658</v>
       </c>
     </row>
   </sheetData>
